--- a/biology/Botanique/Indument/Indument.xlsx
+++ b/biology/Botanique/Indument/Indument.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, un indument[1],[2],[3], ou indûment[4],[5],[6] (du latin : indumentum), est sur une plante toute couverture, dense ou éparse, généralement constituée de poils, ou d'écailles, etc.[1].
-C'est également la couverture de poils que l'on observe chez certains insectes[7], ou de trichomes chez les plantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, un indument ou indûment (du latin : indumentum), est sur une plante toute couverture, dense ou éparse, généralement constituée de poils, ou d'écailles, etc..
+C'est également la couverture de poils que l'on observe chez certains insectes, ou de trichomes chez les plantes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Types d'induments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Certains types d'induments reçoivent un nom précis[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Certains types d'induments reçoivent un nom précis :
 indument arachnoïde : indument formé de poils entrecroisés ;
 indument écailleux : type d'indument présentant de petits disques plans ;
 tomentum : indument formé de poils mous, serrés, couchés et entrecroisés, recouvrant et cachant quasi entièrement le support.</t>
